--- a/biology/Médecine/Vénétoclax/Vénétoclax.xlsx
+++ b/biology/Médecine/Vénétoclax/Vénétoclax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9n%C3%A9toclax</t>
+          <t>Vénétoclax</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vénétoclax est un médicament inhibiteur du Bcl-2 testé dans le traitement de certaines leucémies.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9n%C3%A9toclax</t>
+          <t>Vénétoclax</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la leucémie lymphoïde chronique en rechute, le taux de réponse atteint près de 80%[1], avec une quasi-disparition des cellules leucémiques dans un tiers des cas[2]. Il peut être utilisé en combinaison avec le rituximab[3] ou avec l'ibrutinib[4] dans les formes réfractaires. 
-Dans le lymphome du manteau et en association avec l'ibrutinib, il permet une amélioration de son évolution[5].
-Il pourrait être une option de traitement dans une forme rare de cancer : la leucémie dérivée des cellules dendritiques plasmocytoïdes[6].
-Dans la leucémie myéloïde aiguë (LAM) chez des personnes âgées, cette leucémie a un très mauvais pronostic, même quand on met en œuvre des médicaments inhibiteurs de la méthyltransférase de l'ADN (décitabine, azacitidine). Dans une étude qui a enrôlé 431 malades de plus de 75 ans, le groupe qui a reçu une association azacitidine/vénétoclax a vu apparaître des rémissions complètes  deux fois plus souvent dans le groupe traité par l'association que dans le groupe traité par l'azacitidine seule[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la leucémie lymphoïde chronique en rechute, le taux de réponse atteint près de 80%, avec une quasi-disparition des cellules leucémiques dans un tiers des cas. Il peut être utilisé en combinaison avec le rituximab ou avec l'ibrutinib dans les formes réfractaires. 
+Dans le lymphome du manteau et en association avec l'ibrutinib, il permet une amélioration de son évolution.
+Il pourrait être une option de traitement dans une forme rare de cancer : la leucémie dérivée des cellules dendritiques plasmocytoïdes.
+Dans la leucémie myéloïde aiguë (LAM) chez des personnes âgées, cette leucémie a un très mauvais pronostic, même quand on met en œuvre des médicaments inhibiteurs de la méthyltransférase de l'ADN (décitabine, azacitidine). Dans une étude qui a enrôlé 431 malades de plus de 75 ans, le groupe qui a reçu une association azacitidine/vénétoclax a vu apparaître des rémissions complètes  deux fois plus souvent dans le groupe traité par l'association que dans le groupe traité par l'azacitidine seule.
 </t>
         </is>
       </c>
